--- a/Morning Check List.xlsx
+++ b/Morning Check List.xlsx
@@ -8,13 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="AP Status" sheetId="1" r:id="rId1"/>
+    <sheet name="KSRO" sheetId="2" r:id="rId2"/>
+    <sheet name="KSRM" sheetId="3" r:id="rId3"/>
+    <sheet name="KSPO" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>AP STAUS</t>
   </si>
@@ -32,6 +35,42 @@
   </si>
   <si>
     <t>Down</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>BSSID STATUS</t>
+  </si>
+  <si>
+    <t>@Enterprise</t>
+  </si>
+  <si>
+    <t>Narita</t>
+  </si>
+  <si>
+    <t>Challenger</t>
+  </si>
+  <si>
+    <t>Gesuto</t>
+  </si>
+  <si>
+    <t>Odaiba</t>
+  </si>
+  <si>
+    <t>Akiba</t>
+  </si>
+  <si>
+    <t>Atlantis</t>
+  </si>
+  <si>
+    <t>TABASCO</t>
+  </si>
+  <si>
+    <t>@Telephone</t>
+  </si>
+  <si>
+    <t>WASABI</t>
   </si>
 </sst>
 </file>
@@ -90,12 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,22 +459,22 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -451,4 +487,205 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Morning Check List.xlsx
+++ b/Morning Check List.xlsx
@@ -37,10 +37,10 @@
     <t>Down</t>
   </si>
   <si>
+    <t>BSSID STATUS</t>
+  </si>
+  <si>
     <t>Floor</t>
-  </si>
-  <si>
-    <t>BSSID STATUS</t>
   </si>
   <si>
     <t>@Enterprise</t>
@@ -501,9 +501,7 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -515,7 +513,9 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -548,9 +548,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:K1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -568,9 +567,7 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -582,7 +579,9 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -615,9 +614,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:K1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -635,9 +633,7 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -649,7 +645,9 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -682,9 +680,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:K1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Morning Check List.xlsx
+++ b/Morning Check List.xlsx
@@ -428,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,6 +476,26 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>282</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>358</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>155</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
